--- a/Экзамены _вопросы_1семестр_В01-ВТ-121/Web технологии ВТ-121.xlsx
+++ b/Экзамены _вопросы_1семестр_В01-ВТ-121/Web технологии ВТ-121.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\test\Новая папка\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OSPanel\home\Kurs\Экзамены _вопросы_1семестр_В01-ВТ-121\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB513797-7D09-49BE-A9D2-E6D884733B5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6723974-3E15-4D5A-B86F-22FDD9B618DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1515" yWindow="1515" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30600" yWindow="1920" windowWidth="27000" windowHeight="14040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Список 1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="550">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="551">
   <si>
     <t>локальная вычислительная сеть</t>
   </si>
@@ -1672,13 +1672,16 @@
   </si>
   <si>
     <t>РАМК</t>
+  </si>
+  <si>
+    <t>желтым написано правильные ответы</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1694,13 +1697,34 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -1739,13 +1763,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1765,9 +1801,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1805,9 +1841,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1840,26 +1876,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1892,26 +1911,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2085,24 +2087,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F119"/>
+  <dimension ref="A1:O119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="D102" sqref="D102"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="52.85546875" customWidth="1"/>
-    <col min="2" max="2" width="33.140625" customWidth="1"/>
-    <col min="3" max="6" width="18.5703125" customWidth="1"/>
+    <col min="1" max="1" width="52.88671875" customWidth="1"/>
+    <col min="2" max="2" width="33.109375" customWidth="1"/>
+    <col min="3" max="6" width="18.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B1" s="3">
         <v>1983</v>
       </c>
       <c r="C1" s="1">
@@ -2118,14 +2120,14 @@
         <v>1987</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="5" t="s">
         <v>403</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -2137,12 +2139,22 @@
       <c r="F2" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="16.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H2" s="6" t="s">
+        <v>550</v>
+      </c>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+    </row>
+    <row r="3" spans="1:15" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="4" t="s">
         <v>432</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -2157,12 +2169,20 @@
       <c r="F3" s="2" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+    </row>
+    <row r="4" spans="1:15" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="4" t="s">
         <v>437</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -2178,11 +2198,11 @@
         <v>439</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -2198,11 +2218,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -2218,11 +2238,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -2238,11 +2258,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -2258,11 +2278,11 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -2278,11 +2298,11 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="4" t="s">
         <v>28</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -2298,11 +2318,11 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="4" t="s">
         <v>31</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -2318,11 +2338,11 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="4" t="s">
         <v>440</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -2338,11 +2358,11 @@
         <v>444</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="4" t="s">
         <v>36</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -2358,11 +2378,11 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="4" t="s">
         <v>42</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -2378,11 +2398,11 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="4" t="s">
         <v>437</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -2398,11 +2418,11 @@
         <v>448</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="4" t="s">
         <v>47</v>
       </c>
       <c r="C16" s="2" t="s">
@@ -2418,11 +2438,11 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="4" t="s">
         <v>449</v>
       </c>
       <c r="C17" s="2" t="s">
@@ -2438,11 +2458,11 @@
         <v>450</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -2458,11 +2478,11 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="4" t="s">
         <v>62</v>
       </c>
       <c r="C19" s="2" t="s">
@@ -2478,11 +2498,11 @@
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="4" t="s">
         <v>68</v>
       </c>
       <c r="C20" s="2" t="s">
@@ -2498,11 +2518,11 @@
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="4" t="s">
         <v>74</v>
       </c>
       <c r="C21" s="2" t="s">
@@ -2518,11 +2538,11 @@
         <v>77</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="4" t="s">
         <v>407</v>
       </c>
       <c r="C22" s="2" t="s">
@@ -2538,11 +2558,11 @@
         <v>411</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="4" t="s">
         <v>451</v>
       </c>
       <c r="C23" s="2" t="s">
@@ -2558,11 +2578,11 @@
         <v>81</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="4" t="s">
         <v>453</v>
       </c>
       <c r="C24" s="2" t="s">
@@ -2578,11 +2598,11 @@
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="4" t="s">
         <v>455</v>
       </c>
       <c r="C25" s="2" t="s">
@@ -2598,11 +2618,11 @@
         <v>454</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="4" t="s">
         <v>456</v>
       </c>
       <c r="C26" s="2" t="s">
@@ -2618,11 +2638,11 @@
         <v>460</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="4" t="s">
         <v>461</v>
       </c>
       <c r="C27" s="2" t="s">
@@ -2638,11 +2658,11 @@
         <v>459</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="4" t="s">
         <v>463</v>
       </c>
       <c r="C28" s="2" t="s">
@@ -2658,11 +2678,11 @@
         <v>465</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="4" t="s">
         <v>466</v>
       </c>
       <c r="C29" s="2" t="s">
@@ -2678,11 +2698,11 @@
         <v>470</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="4" t="s">
         <v>471</v>
       </c>
       <c r="C30" s="2" t="s">
@@ -2698,11 +2718,11 @@
         <v>475</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="4" t="s">
         <v>476</v>
       </c>
       <c r="C31" s="2" t="s">
@@ -2718,11 +2738,11 @@
         <v>96</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="4" t="s">
         <v>480</v>
       </c>
       <c r="C32" s="2" t="s">
@@ -2738,11 +2758,11 @@
         <v>478</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="4" t="s">
         <v>484</v>
       </c>
       <c r="C33" s="2" t="s">
@@ -2758,11 +2778,11 @@
         <v>483</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="4" t="s">
         <v>486</v>
       </c>
       <c r="C34" s="2" t="s">
@@ -2778,11 +2798,11 @@
         <v>96</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="4" t="s">
         <v>489</v>
       </c>
       <c r="C35" s="2" t="s">
@@ -2798,11 +2818,11 @@
         <v>478</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="4" t="s">
         <v>490</v>
       </c>
       <c r="C36" s="2" t="s">
@@ -2818,11 +2838,11 @@
         <v>487</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="4" t="s">
         <v>491</v>
       </c>
       <c r="C37" s="2" t="s">
@@ -2838,11 +2858,11 @@
         <v>495</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="4" t="s">
         <v>496</v>
       </c>
       <c r="C38" s="2" t="s">
@@ -2858,11 +2878,11 @@
         <v>492</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="4" t="s">
         <v>498</v>
       </c>
       <c r="C39" s="2" t="s">
@@ -2878,11 +2898,11 @@
         <v>495</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="4" t="s">
         <v>499</v>
       </c>
       <c r="C40" s="2" t="s">
@@ -2898,11 +2918,11 @@
         <v>503</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="4" t="s">
         <v>504</v>
       </c>
       <c r="C41" s="2" t="s">
@@ -2918,11 +2938,11 @@
         <v>508</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="4" t="s">
         <v>509</v>
       </c>
       <c r="C42" s="2" t="s">
@@ -2938,11 +2958,11 @@
         <v>467</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="4" t="s">
         <v>511</v>
       </c>
       <c r="C43" s="2" t="s">
@@ -2958,11 +2978,11 @@
         <v>515</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" s="4" t="s">
         <v>516</v>
       </c>
       <c r="C44" s="2" t="s">
@@ -2978,11 +2998,11 @@
         <v>515</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B45" s="4" t="s">
         <v>518</v>
       </c>
       <c r="C45" s="2" t="s">
@@ -2998,11 +3018,11 @@
         <v>514</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B46" s="4" t="s">
         <v>519</v>
       </c>
       <c r="C46" s="2" t="s">
@@ -3018,11 +3038,11 @@
         <v>523</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B47" s="4" t="s">
         <v>524</v>
       </c>
       <c r="C47" s="2" t="s">
@@ -3038,11 +3058,11 @@
         <v>522</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B48" s="4" t="s">
         <v>526</v>
       </c>
       <c r="C48" s="2" t="s">
@@ -3058,11 +3078,11 @@
         <v>530</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B49" s="4" t="s">
         <v>531</v>
       </c>
       <c r="C49" s="2" t="s">
@@ -3078,11 +3098,11 @@
         <v>525</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B50" s="4" t="s">
         <v>533</v>
       </c>
       <c r="C50" s="2" t="s">
@@ -3098,11 +3118,11 @@
         <v>520</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B51" s="4" t="s">
         <v>534</v>
       </c>
       <c r="C51" s="2" t="s">
@@ -3118,11 +3138,11 @@
         <v>522</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B52" s="4" t="s">
         <v>535</v>
       </c>
       <c r="C52" s="2" t="s">
@@ -3138,11 +3158,11 @@
         <v>538</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B53" s="4" t="s">
         <v>480</v>
       </c>
       <c r="C53" s="2" t="s">
@@ -3158,11 +3178,11 @@
         <v>483</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="B54" s="4" t="s">
         <v>484</v>
       </c>
       <c r="C54" s="2" t="s">
@@ -3178,11 +3198,11 @@
         <v>539</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="B55" s="4" t="s">
         <v>540</v>
       </c>
       <c r="C55" s="2" t="s">
@@ -3198,11 +3218,11 @@
         <v>544</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B56" s="4" t="s">
         <v>156</v>
       </c>
       <c r="C56" s="2" t="s">
@@ -3218,11 +3238,11 @@
         <v>160</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B57" s="4" t="s">
         <v>161</v>
       </c>
       <c r="C57" s="2" t="s">
@@ -3238,11 +3258,11 @@
         <v>165</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B58" s="4" t="s">
         <v>166</v>
       </c>
       <c r="C58" s="2" t="s">
@@ -3258,11 +3278,11 @@
         <v>170</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="B59" s="4" t="s">
         <v>171</v>
       </c>
       <c r="C59" s="2" t="s">
@@ -3278,11 +3298,11 @@
         <v>175</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="B60" s="4" t="s">
         <v>176</v>
       </c>
       <c r="C60" s="2" t="s">
@@ -3298,11 +3318,11 @@
         <v>180</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="B61" s="4" t="s">
         <v>182</v>
       </c>
       <c r="C61" s="2" t="s">
@@ -3318,11 +3338,11 @@
         <v>185</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="B62" s="4" t="s">
         <v>187</v>
       </c>
       <c r="C62" s="2" t="s">
@@ -3338,11 +3358,11 @@
         <v>191</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
         <v>545</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="B63" s="4" t="s">
         <v>546</v>
       </c>
       <c r="C63" s="2" t="s">
@@ -3358,11 +3378,11 @@
         <v>189</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="B64" s="4" t="s">
         <v>195</v>
       </c>
       <c r="C64" s="2" t="s">
@@ -3378,11 +3398,11 @@
         <v>191</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="2" t="s">
         <v>547</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="B65" s="4" t="s">
         <v>198</v>
       </c>
       <c r="C65" s="2" t="s">
@@ -3398,11 +3418,11 @@
         <v>202</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="B66" s="4" t="s">
         <v>203</v>
       </c>
       <c r="C66" s="2" t="s">
@@ -3418,11 +3438,11 @@
         <v>353</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="B67" s="4" t="s">
         <v>418</v>
       </c>
       <c r="C67" s="2" t="s">
@@ -3438,11 +3458,11 @@
         <v>211</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="73.150000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" ht="73.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="B68" s="4" t="s">
         <v>212</v>
       </c>
       <c r="C68" s="2" t="s">
@@ -3458,11 +3478,11 @@
         <v>419</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="B69" s="4" t="s">
         <v>421</v>
       </c>
       <c r="C69" s="2" t="s">
@@ -3478,11 +3498,11 @@
         <v>215</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="B70" s="4" t="s">
         <v>217</v>
       </c>
       <c r="C70" s="2" t="s">
@@ -3498,11 +3518,11 @@
         <v>221</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="B71" s="4" t="s">
         <v>354</v>
       </c>
       <c r="C71" s="2" t="s">
@@ -3518,11 +3538,11 @@
         <v>357</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="B72" s="4" t="s">
         <v>358</v>
       </c>
       <c r="C72" s="2" t="s">
@@ -3538,11 +3558,11 @@
         <v>362</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="B73" s="4" t="s">
         <v>363</v>
       </c>
       <c r="C73" s="2" t="s">
@@ -3558,11 +3578,11 @@
         <v>366</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="B74" s="4" t="s">
         <v>224</v>
       </c>
       <c r="C74" s="2" t="s">
@@ -3578,11 +3598,11 @@
         <v>228</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="B75" s="4" t="s">
         <v>428</v>
       </c>
       <c r="C75" s="2" t="s">
@@ -3598,11 +3618,11 @@
         <v>231</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="B76" s="2" t="s">
+      <c r="B76" s="4" t="s">
         <v>233</v>
       </c>
       <c r="C76" s="2" t="s">
@@ -3618,11 +3638,11 @@
         <v>237</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="B77" s="2" t="s">
+      <c r="B77" s="4" t="s">
         <v>238</v>
       </c>
       <c r="C77" s="2" t="s">
@@ -3638,11 +3658,11 @@
         <v>242</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="B78" s="2" t="s">
+      <c r="B78" s="4" t="s">
         <v>243</v>
       </c>
       <c r="C78" s="2" t="s">
@@ -3658,11 +3678,11 @@
         <v>247</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="B79" s="2" t="s">
+      <c r="B79" s="4" t="s">
         <v>248</v>
       </c>
       <c r="C79" s="2" t="s">
@@ -3678,11 +3698,11 @@
         <v>252</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="B80" s="2" t="s">
+      <c r="B80" s="4" t="s">
         <v>253</v>
       </c>
       <c r="C80" s="2" t="s">
@@ -3698,11 +3718,11 @@
         <v>257</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="B81" s="2" t="s">
+      <c r="B81" s="4" t="s">
         <v>258</v>
       </c>
       <c r="C81" s="2" t="s">
@@ -3718,11 +3738,11 @@
         <v>262</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="B82" s="2" t="s">
+      <c r="B82" s="4" t="s">
         <v>263</v>
       </c>
       <c r="C82" s="2" t="s">
@@ -3738,11 +3758,11 @@
         <v>132</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="B83" s="2" t="s">
+      <c r="B83" s="4" t="s">
         <v>266</v>
       </c>
       <c r="C83" s="2" t="s">
@@ -3758,11 +3778,11 @@
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="B84" s="2" t="s">
+      <c r="B84" s="4" t="s">
         <v>269</v>
       </c>
       <c r="C84" s="2" t="s">
@@ -3778,11 +3798,11 @@
         <v>247</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="B85" s="2" t="s">
+      <c r="B85" s="4" t="s">
         <v>271</v>
       </c>
       <c r="C85" s="2" t="s">
@@ -3798,11 +3818,11 @@
         <v>245</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="B86" s="2" t="s">
+      <c r="B86" s="4" t="s">
         <v>273</v>
       </c>
       <c r="C86" s="2" t="s">
@@ -3818,11 +3838,11 @@
         <v>245</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="B87" s="2" t="s">
+      <c r="B87" s="4" t="s">
         <v>275</v>
       </c>
       <c r="C87" s="2" t="s">
@@ -3838,11 +3858,11 @@
         <v>278</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="B88" s="2" t="s">
+      <c r="B88" s="4" t="s">
         <v>279</v>
       </c>
       <c r="C88" s="2" t="s">
@@ -3858,11 +3878,11 @@
         <v>283</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="B89" s="2" t="s">
+      <c r="B89" s="4" t="s">
         <v>284</v>
       </c>
       <c r="C89" s="2" t="s">
@@ -3878,11 +3898,11 @@
         <v>288</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="B90" s="2" t="s">
+      <c r="B90" s="4" t="s">
         <v>289</v>
       </c>
       <c r="C90" s="2" t="s">
@@ -3898,11 +3918,11 @@
         <v>285</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="B91" s="2" t="s">
+      <c r="B91" s="4" t="s">
         <v>291</v>
       </c>
       <c r="C91" s="2" t="s">
@@ -3918,11 +3938,11 @@
         <v>295</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="B92" s="2" t="s">
+      <c r="B92" s="4" t="s">
         <v>296</v>
       </c>
       <c r="C92" s="2" t="s">
@@ -3938,11 +3958,11 @@
         <v>292</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="B93" s="2" t="s">
+      <c r="B93" s="4" t="s">
         <v>298</v>
       </c>
       <c r="C93" s="2" t="s">
@@ -3958,11 +3978,11 @@
         <v>301</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="B94" s="2" t="s">
+      <c r="B94" s="4" t="s">
         <v>302</v>
       </c>
       <c r="C94" s="2" t="s">
@@ -3978,11 +3998,11 @@
         <v>304</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="B95" s="2" t="s">
+      <c r="B95" s="4" t="s">
         <v>305</v>
       </c>
       <c r="C95" s="2" t="s">
@@ -3998,11 +4018,11 @@
         <v>306</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="B96" s="2" t="s">
+      <c r="B96" s="4" t="s">
         <v>307</v>
       </c>
       <c r="C96" s="2" t="s">
@@ -4018,11 +4038,11 @@
         <v>79</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A97" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="B97" s="2" t="s">
+      <c r="B97" s="4" t="s">
         <v>310</v>
       </c>
       <c r="C97" s="2" t="s">
@@ -4038,11 +4058,11 @@
         <v>314</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="B98" s="2" t="s">
+      <c r="B98" s="4" t="s">
         <v>315</v>
       </c>
       <c r="C98" s="2" t="s">
@@ -4058,11 +4078,11 @@
         <v>317</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A99" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="B99" s="2" t="s">
+      <c r="B99" s="4" t="s">
         <v>87</v>
       </c>
       <c r="C99" s="2" t="s">
@@ -4078,11 +4098,11 @@
         <v>91</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A100" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="B100" s="2" t="s">
+      <c r="B100" s="4" t="s">
         <v>92</v>
       </c>
       <c r="C100" s="2" t="s">
@@ -4098,11 +4118,11 @@
         <v>96</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A101" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="B101" s="2" t="s">
+      <c r="B101" s="4" t="s">
         <v>97</v>
       </c>
       <c r="C101" s="2" t="s">
@@ -4118,11 +4138,11 @@
         <v>94</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A102" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="B102" s="2" t="s">
+      <c r="B102" s="4" t="s">
         <v>100</v>
       </c>
       <c r="C102" s="2" t="s">
@@ -4138,11 +4158,11 @@
         <v>99</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="B103" s="2" t="s">
+      <c r="B103" s="4" t="s">
         <v>102</v>
       </c>
       <c r="C103" s="2" t="s">
@@ -4158,11 +4178,11 @@
         <v>96</v>
       </c>
     </row>
-    <row r="104" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A104" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="B104" s="2" t="s">
+      <c r="B104" s="4" t="s">
         <v>105</v>
       </c>
       <c r="C104" s="2" t="s">
@@ -4178,11 +4198,11 @@
         <v>94</v>
       </c>
     </row>
-    <row r="105" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A105" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="B105" s="2" t="s">
+      <c r="B105" s="4" t="s">
         <v>106</v>
       </c>
       <c r="C105" s="2" t="s">
@@ -4198,11 +4218,11 @@
         <v>103</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A106" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="B106" s="2" t="s">
+      <c r="B106" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C106" s="2" t="s">
@@ -4218,11 +4238,11 @@
         <v>112</v>
       </c>
     </row>
-    <row r="107" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A107" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="B107" s="2" t="s">
+      <c r="B107" s="4" t="s">
         <v>113</v>
       </c>
       <c r="C107" s="2" t="s">
@@ -4238,11 +4258,11 @@
         <v>109</v>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A108" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="B108" s="2" t="s">
+      <c r="B108" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C108" s="2" t="s">
@@ -4258,11 +4278,11 @@
         <v>112</v>
       </c>
     </row>
-    <row r="109" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A109" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="B109" s="2" t="s">
+      <c r="B109" s="4" t="s">
         <v>116</v>
       </c>
       <c r="C109" s="2" t="s">
@@ -4278,11 +4298,11 @@
         <v>120</v>
       </c>
     </row>
-    <row r="110" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A110" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="B110" s="2" t="s">
+      <c r="B110" s="4" t="s">
         <v>121</v>
       </c>
       <c r="C110" s="2" t="s">
@@ -4298,11 +4318,11 @@
         <v>125</v>
       </c>
     </row>
-    <row r="111" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A111" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="B111" s="2" t="s">
+      <c r="B111" s="4" t="s">
         <v>126</v>
       </c>
       <c r="C111" s="2" t="s">
@@ -4318,11 +4338,11 @@
         <v>130</v>
       </c>
     </row>
-    <row r="112" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A112" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="B112" s="2" t="s">
+      <c r="B112" s="4" t="s">
         <v>131</v>
       </c>
       <c r="C112" s="2" t="s">
@@ -4338,11 +4358,11 @@
         <v>83</v>
       </c>
     </row>
-    <row r="113" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A113" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="B113" s="2" t="s">
+      <c r="B113" s="4" t="s">
         <v>133</v>
       </c>
       <c r="C113" s="2" t="s">
@@ -4358,11 +4378,11 @@
         <v>137</v>
       </c>
     </row>
-    <row r="114" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A114" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="B114" s="2" t="s">
+      <c r="B114" s="4" t="s">
         <v>138</v>
       </c>
       <c r="C114" s="2" t="s">
@@ -4378,11 +4398,11 @@
         <v>137</v>
       </c>
     </row>
-    <row r="115" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A115" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="B115" s="2" t="s">
+      <c r="B115" s="4" t="s">
         <v>140</v>
       </c>
       <c r="C115" s="2" t="s">
@@ -4398,11 +4418,11 @@
         <v>136</v>
       </c>
     </row>
-    <row r="116" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A116" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="B116" s="2" t="s">
+      <c r="B116" s="4" t="s">
         <v>141</v>
       </c>
       <c r="C116" s="2" t="s">
@@ -4418,11 +4438,11 @@
         <v>145</v>
       </c>
     </row>
-    <row r="117" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A117" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="B117" s="2" t="s">
+      <c r="B117" s="4" t="s">
         <v>146</v>
       </c>
       <c r="C117" s="2" t="s">
@@ -4438,11 +4458,11 @@
         <v>144</v>
       </c>
     </row>
-    <row r="118" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A118" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="B118" s="2" t="s">
+      <c r="B118" s="4" t="s">
         <v>148</v>
       </c>
       <c r="C118" s="2" t="s">
@@ -4458,11 +4478,11 @@
         <v>152</v>
       </c>
     </row>
-    <row r="119" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A119" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="B119" s="2" t="s">
+      <c r="B119" s="4" t="s">
         <v>153</v>
       </c>
       <c r="C119" s="2" t="s">
@@ -4479,6 +4499,9 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="H2:O3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -4490,7 +4513,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4502,7 +4525,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
